--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
@@ -2352,7 +2352,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="59.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="101">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -167,22 +167,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>all1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -211,22 +195,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>all2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>！@#￥%……&amp;*（）——+|}{【】、？》。、!@#$%^&amp;*()_+-=\][{}|/.&gt;?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -235,143 +203,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>all3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>all3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>all2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>all2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>all5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建确认按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名确认按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工况组合删除按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>检查工况组合下拉框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>重命名前工况组合下拉框选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjgk003</t>
+  </si>
+  <si>
+    <t>请输入完整的包络工况信息!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjgk002</t>
+  </si>
+  <si>
+    <t>bjgk004</t>
+  </si>
+  <si>
+    <t>bjgk005</t>
+  </si>
+  <si>
+    <t>bjgk006</t>
+  </si>
+  <si>
+    <t>bjgk007</t>
+  </si>
+  <si>
+    <t>bjgk008</t>
+  </si>
+  <si>
+    <t>bjgk009</t>
+  </si>
+  <si>
+    <t>请输入完整的包络工况信息!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击全选工况按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击全选工况按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击不全选工况按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>重命名勾选框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>重命名前工况组合下拉框选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjgk003</t>
-  </si>
-  <si>
-    <t>请输入完整的包络工况信息!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjgk001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjgk002</t>
-  </si>
-  <si>
-    <t>bjgk004</t>
-  </si>
-  <si>
-    <t>bjgk005</t>
-  </si>
-  <si>
-    <t>bjgk006</t>
-  </si>
-  <si>
-    <t>bjgk007</t>
-  </si>
-  <si>
-    <t>bjgk008</t>
-  </si>
-  <si>
-    <t>bjgk009</t>
-  </si>
-  <si>
-    <t>all1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>包络工况名称已存在，请重新输入!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写包络工况新名称!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入完整的包络工况信息!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>all5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>载荷信息-&gt;编辑工况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击全选工况按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击全选工况按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击不全选工况按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名勾选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>检查工况组合下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地返回</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -418,6 +310,115 @@
   </si>
   <si>
     <t>bjgk012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all6</t>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入完整的包络工况信息!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包络工况名称已存在,请重新输入!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包络工况名称已存在,请重新输入!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！@#￥%……&amp;*（）——+|}{【】、？》。、!@#$%^&amp;*()_+-=\][{}|/.&gt;?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901999567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjgk013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjgk014</t>
+  </si>
+  <si>
+    <t>bjgk015</t>
+  </si>
+  <si>
+    <t>bjgk016</t>
+  </si>
+  <si>
+    <t>bjgk017</t>
+  </si>
+  <si>
+    <t>bjgk018</t>
+  </si>
+  <si>
+    <t>bjgk019</t>
+  </si>
+  <si>
+    <t>请填写包络工况新名称!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCDefgqqq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCDefgqqq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉字汉字汉字好</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -845,24 +846,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.25" style="6" customWidth="1"/>
-    <col min="3" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="12.25" style="2" customWidth="1"/>
-    <col min="14" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="15" style="2" customWidth="1"/>
-    <col min="17" max="19" width="9" style="2"/>
-    <col min="25" max="25" width="9" style="2"/>
+    <col min="1" max="1" width="9.06640625" style="8"/>
+    <col min="2" max="2" width="38.265625" style="6" customWidth="1"/>
+    <col min="3" max="15" width="9.06640625" style="2"/>
+    <col min="16" max="16" width="22.265625" style="2" customWidth="1"/>
+    <col min="17" max="19" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,37 +875,37 @@
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>10</v>
@@ -920,183 +919,178 @@
       <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>62</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>75</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="P2" s="4"/>
       <c r="Q2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" s="4"/>
-      <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="P4" s="4"/>
       <c r="Q4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="S4" s="4"/>
-      <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>12</v>
@@ -1104,206 +1098,203 @@
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>36</v>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="Q5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="S5" s="4"/>
-      <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="Y6"/>
-    </row>
-    <row r="7" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="Y7"/>
-    </row>
-    <row r="8" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>7</v>
@@ -1315,51 +1306,50 @@
         <v>7</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8"/>
-      <c r="Y8"/>
-    </row>
-    <row r="9" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="L9" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>7</v>
@@ -1371,72 +1361,243 @@
         <v>7</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S9"/>
-      <c r="Y9"/>
-    </row>
-    <row r="10" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H10" s="4" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="Y10"/>
+      <c r="H12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1453,16 +1614,16 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="38.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="38.265625" style="6" customWidth="1"/>
     <col min="3" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="19.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.1328125" style="2" customWidth="1"/>
     <col min="16" max="18" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,10 +1637,10 @@
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>28</v>
@@ -1488,19 +1649,19 @@
         <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>33</v>
@@ -1522,9 +1683,9 @@
       </c>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -1542,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>8</v>
@@ -1569,13 +1730,13 @@
         <v>7</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S2" s="4"/>
     </row>
@@ -1590,19 +1751,19 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="38.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="38.265625" style="6" customWidth="1"/>
     <col min="3" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="22.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.265625" style="2" customWidth="1"/>
     <col min="17" max="19" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,10 +1777,10 @@
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>28</v>
@@ -1628,19 +1789,19 @@
         <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>33</v>
@@ -1662,9 +1823,9 @@
       </c>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>24</v>
@@ -1713,13 +1874,13 @@
         <v>9</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -1737,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>8</v>
@@ -1764,19 +1925,19 @@
         <v>7</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>25</v>
@@ -1825,13 +1986,13 @@
         <v>9</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>12</v>
@@ -1849,7 +2010,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>8</v>
@@ -1876,19 +2037,19 @@
         <v>7</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
@@ -1906,7 +2067,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>8</v>
@@ -1933,19 +2094,19 @@
         <v>7</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -1963,7 +2124,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>8</v>
@@ -1990,19 +2151,19 @@
         <v>7</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>12</v>
@@ -2020,7 +2181,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -2047,19 +2208,19 @@
         <v>7</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -2102,19 +2263,19 @@
         <v>7</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
@@ -2132,7 +2293,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>8</v>
@@ -2159,22 +2320,22 @@
         <v>7</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>26</v>
@@ -2189,7 +2350,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>8</v>
@@ -2216,22 +2377,22 @@
         <v>7</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>26</v>
@@ -2246,7 +2407,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
@@ -2273,19 +2434,19 @@
         <v>7</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -2303,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>8</v>
@@ -2330,13 +2491,13 @@
         <v>7</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S13" s="4"/>
     </row>
@@ -2349,23 +2510,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="59.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="59.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="38.265625" style="6" customWidth="1"/>
     <col min="3" max="11" width="9" style="2"/>
     <col min="12" max="12" width="11" style="2" customWidth="1"/>
     <col min="13" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="18.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.86328125" style="2" customWidth="1"/>
     <col min="16" max="16" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2379,10 +2540,10 @@
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>28</v>
@@ -2391,19 +2552,19 @@
         <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>33</v>
@@ -2425,188 +2586,395 @@
       </c>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
+      <c r="D3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
+      <c r="L4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
+      <c r="D5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
+      <c r="D6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+      <c r="D7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="5"/>
+      <c r="D8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -16,8 +16,258 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="108">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -263,10 +513,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>检查工况组合下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>本地返回</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -344,10 +590,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>本地返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>all2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -420,13 +662,42 @@
   <si>
     <t>汉字汉字汉字好</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果文本信息</t>
+  </si>
+  <si>
+    <t>用例状态</t>
+  </si>
+  <si>
+    <t>预期值信息类型</t>
+  </si>
+  <si>
+    <t>操作窗口标题</t>
+  </si>
+  <si>
+    <t>初始化级别</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>编辑工况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个被测模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件文本</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +720,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -560,7 +844,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -923,7 +1207,7 @@
     </row>
     <row r="2" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>24</v>
@@ -972,7 +1256,7 @@
         <v>9</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S2" s="4"/>
     </row>
@@ -1249,7 +1533,7 @@
         <v>7</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>9</v>
@@ -1430,10 +1714,10 @@
     </row>
     <row r="11" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>26</v>
@@ -1475,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>9</v>
@@ -1487,10 +1771,10 @@
     </row>
     <row r="12" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>26</v>
@@ -1544,7 +1828,7 @@
     </row>
     <row r="13" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -1562,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>8</v>
@@ -1589,7 +1873,7 @@
         <v>7</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>9</v>
@@ -1610,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1747,19 +2031,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="38.265625" style="6" customWidth="1"/>
-    <col min="3" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="22.265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="15" width="5.53125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.73046875" style="2" customWidth="1"/>
     <col min="17" max="19" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1810,22 +2095,28 @@
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>24</v>
@@ -1874,9 +2165,14 @@
         <v>9</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -1930,10 +2226,15 @@
       <c r="Q3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -1985,10 +2286,15 @@
       <c r="Q4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="4"/>
+      <c r="R4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -2042,10 +2348,15 @@
       <c r="Q5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="4"/>
+      <c r="R5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -2094,15 +2405,20 @@
         <v>7</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="S6" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -2151,7 +2467,7 @@
         <v>7</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>9</v>
@@ -2159,7 +2475,12 @@
       <c r="R7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -2213,10 +2534,15 @@
       <c r="Q8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="4"/>
+      <c r="R8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -2271,7 +2597,12 @@
       <c r="R9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -2325,17 +2656,22 @@
       <c r="Q10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" s="4"/>
+      <c r="R10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>26</v>
@@ -2377,22 +2713,27 @@
         <v>7</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S11" s="4"/>
+      <c r="R11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>26</v>
@@ -2439,14 +2780,19 @@
       <c r="Q12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S12" s="4"/>
+      <c r="R12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -2464,56 +2810,70 @@
         <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="4"/>
+      <c r="R13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1">
+      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1">
+      <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="59.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2526,7 +2886,7 @@
     <col min="16" max="16" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2924,7 @@
         <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>33</v>
@@ -2573,22 +2933,28 @@
         <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -2597,54 +2963,60 @@
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="R2" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
@@ -2653,54 +3025,60 @@
         <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>19</v>
@@ -2709,52 +3087,58 @@
         <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
@@ -2763,54 +3147,60 @@
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -2819,54 +3209,60 @@
         <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>22</v>
@@ -2875,54 +3271,60 @@
         <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>23</v>
@@ -2931,54 +3333,109 @@
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>80</v>
+        <v>107</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1">
+      <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1">
+      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -197,9 +197,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+窗口一
+窗口二
+窗口三</t>
         </r>
       </text>
     </comment>
@@ -366,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="134">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -892,147 +892,150 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有弹窗出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗中输入文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭弹窗按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有嵌套弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗关闭按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击取消全选工况按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名勾选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名前工况组合下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等到时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作子窗口标题</t>
+  </si>
+  <si>
     <t>所操作实例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗中输入文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭弹窗按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击取消全选工况按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名勾选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名前工况组合下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果等到时间</t>
+    <t>窗口一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1152,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1194,6 +1197,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1500,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -1531,7 +1535,7 @@
         <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -1540,10 +1544,10 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>47</v>
@@ -1576,7 +1580,7 @@
         <v>89</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>90</v>
@@ -1668,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1689,7 +1693,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1698,10 +1702,10 @@
         <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>47</v>
@@ -1724,40 +1728,40 @@
         <v>94</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1765,40 +1769,40 @@
         <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="F3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1806,86 +1810,86 @@
         <v>96</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="4">
         <v>0.2</v>
@@ -1926,371 +1930,371 @@
     </row>
     <row r="7" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2302,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2316,9 +2320,10 @@
     <col min="4" max="15" width="5.5" style="2" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="2" customWidth="1"/>
     <col min="17" max="19" width="9" style="2"/>
+    <col min="20" max="20" width="6" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2335,7 +2340,7 @@
         <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -2344,10 +2349,10 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>47</v>
@@ -2377,17 +2382,20 @@
         <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="V1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -2443,14 +2451,18 @@
       <c r="S2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="13">
+      <c r="V2" s="10">
         <v>0.2</v>
       </c>
+      <c r="W2" s="15"/>
     </row>
-    <row r="3" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -2508,14 +2520,18 @@
       <c r="S3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U3" s="13">
+      <c r="V3" s="10">
         <v>0.2</v>
       </c>
+      <c r="W3" s="15"/>
     </row>
-    <row r="4" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2571,14 +2587,18 @@
       <c r="S4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U4" s="13">
+      <c r="V4" s="10">
         <v>0.2</v>
       </c>
+      <c r="W4" s="15"/>
     </row>
-    <row r="5" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -2636,14 +2656,18 @@
       <c r="S5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="13">
+      <c r="V5" s="10">
         <v>0.2</v>
       </c>
+      <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -2701,14 +2725,18 @@
       <c r="S6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U6" s="13">
+      <c r="V6" s="10">
         <v>0.2</v>
       </c>
+      <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
@@ -2766,14 +2794,18 @@
       <c r="S7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U7" s="13">
+      <c r="V7" s="10">
         <v>0.2</v>
       </c>
+      <c r="W7" s="15"/>
     </row>
-    <row r="8" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2831,14 +2863,18 @@
       <c r="S8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U8" s="13">
+      <c r="V8" s="10">
         <v>0.2</v>
       </c>
+      <c r="W8" s="15"/>
     </row>
-    <row r="9" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -2894,14 +2930,18 @@
       <c r="S9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U9" s="13">
+      <c r="V9" s="10">
         <v>0.2</v>
       </c>
+      <c r="W9" s="15"/>
     </row>
-    <row r="10" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -2959,14 +2999,18 @@
       <c r="S10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="T10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U10" s="13">
+      <c r="V10" s="10">
         <v>0.2</v>
       </c>
+      <c r="W10" s="15"/>
     </row>
-    <row r="11" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -3024,14 +3068,18 @@
       <c r="S11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="T11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U11" s="13">
+      <c r="V11" s="10">
         <v>0.2</v>
       </c>
+      <c r="W11" s="15"/>
     </row>
-    <row r="12" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>51</v>
       </c>
@@ -3089,14 +3137,18 @@
       <c r="S12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="T12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U12" s="13">
+      <c r="V12" s="10">
         <v>0.2</v>
       </c>
+      <c r="W12" s="15"/>
     </row>
-    <row r="13" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>56</v>
       </c>
@@ -3154,12 +3206,16 @@
       <c r="S13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T13" s="9" t="s">
+      <c r="T13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U13" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U13" s="13">
+      <c r="V13" s="10">
         <v>0.2</v>
       </c>
+      <c r="W13" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3179,7 +3235,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD14"/>
@@ -3193,9 +3249,10 @@
     <col min="13" max="14" width="9" style="2"/>
     <col min="15" max="15" width="18.875" style="2" customWidth="1"/>
     <col min="16" max="16" width="9" style="2"/>
+    <col min="20" max="20" width="6" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3212,7 +3269,7 @@
         <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -3221,10 +3278,10 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>47</v>
@@ -3254,17 +3311,20 @@
         <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="V1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>74</v>
       </c>
@@ -3322,14 +3382,17 @@
       <c r="S2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="13">
+      <c r="V2" s="13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>75</v>
       </c>
@@ -3387,14 +3450,17 @@
       <c r="S3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="U3" s="13">
+      <c r="V3" s="13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>76</v>
       </c>
@@ -3450,14 +3516,17 @@
       <c r="S4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="U4" s="13">
+      <c r="V4" s="13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -3515,14 +3584,17 @@
       <c r="S5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="13">
+      <c r="V5" s="13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>78</v>
       </c>
@@ -3580,14 +3652,17 @@
       <c r="S6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="U6" s="13">
+      <c r="V6" s="13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>79</v>
       </c>
@@ -3645,14 +3720,17 @@
       <c r="S7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="U7" s="13">
+      <c r="V7" s="13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
@@ -3710,10 +3788,13 @@
       <c r="S8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="U8" s="13">
+      <c r="V8" s="13">
         <v>0.2</v>
       </c>
     </row>

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
@@ -197,9 +197,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-窗口一
-窗口二
-窗口三</t>
+通用
+特殊一
+特殊二</t>
         </r>
       </text>
     </comment>
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="135">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -880,6 +880,117 @@
     <t>控件文本</t>
   </si>
   <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击取消全选工况按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名勾选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名前工况组合下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等到时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作子窗口标题</t>
+  </si>
+  <si>
+    <t>所操作实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>控件类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -929,113 +1040,6 @@
   </si>
   <si>
     <t>嵌套弹窗关闭按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击取消全选工况按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名勾选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名前工况组合下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果等到时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作子窗口标题</t>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1140,17 +1144,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1181,9 +1174,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1198,6 +1188,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1535,7 +1528,7 @@
         <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -1544,10 +1537,10 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>47</v>
@@ -1580,7 +1573,7 @@
         <v>89</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>90</v>
@@ -1645,10 +1638,10 @@
       <c r="S2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -1673,18 +1666,18 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:M5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15" style="12" customWidth="1"/>
-    <col min="2" max="12" width="17.5" style="12" customWidth="1"/>
-    <col min="13" max="13" width="17.5" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="12" width="17.5" style="11" customWidth="1"/>
+    <col min="13" max="13" width="17.5" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>24</v>
@@ -1693,7 +1686,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1702,10 +1695,10 @@
         <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>47</v>
@@ -1725,171 +1718,171 @@
     </row>
     <row r="2" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="M3" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="B6" s="4">
         <v>0.2</v>
@@ -1930,371 +1923,371 @@
     </row>
     <row r="7" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2302,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2320,7 +2313,7 @@
     <col min="4" max="15" width="5.5" style="2" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="2" customWidth="1"/>
     <col min="17" max="19" width="9" style="2"/>
-    <col min="20" max="20" width="6" style="15" customWidth="1"/>
+    <col min="20" max="20" width="6" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2340,7 +2333,7 @@
         <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -2349,10 +2342,10 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>47</v>
@@ -2382,13 +2375,13 @@
         <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>90</v>
@@ -2454,13 +2447,13 @@
       <c r="T2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="9">
         <v>0.2</v>
       </c>
-      <c r="W2" s="15"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
@@ -2523,13 +2516,13 @@
       <c r="T3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="9">
         <v>0.2</v>
       </c>
-      <c r="W3" s="15"/>
+      <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -2590,13 +2583,13 @@
       <c r="T4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="9">
         <v>0.2</v>
       </c>
-      <c r="W4" s="15"/>
+      <c r="W4" s="14"/>
     </row>
     <row r="5" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
@@ -2659,13 +2652,13 @@
       <c r="T5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="9">
         <v>0.2</v>
       </c>
-      <c r="W5" s="15"/>
+      <c r="W5" s="14"/>
     </row>
     <row r="6" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
@@ -2728,13 +2721,13 @@
       <c r="T6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <v>0.2</v>
       </c>
-      <c r="W6" s="15"/>
+      <c r="W6" s="14"/>
     </row>
     <row r="7" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
@@ -2797,13 +2790,13 @@
       <c r="T7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <v>0.2</v>
       </c>
-      <c r="W7" s="15"/>
+      <c r="W7" s="14"/>
     </row>
     <row r="8" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
@@ -2866,13 +2859,13 @@
       <c r="T8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <v>0.2</v>
       </c>
-      <c r="W8" s="15"/>
+      <c r="W8" s="14"/>
     </row>
     <row r="9" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
@@ -2933,13 +2926,13 @@
       <c r="T9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="U9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <v>0.2</v>
       </c>
-      <c r="W9" s="15"/>
+      <c r="W9" s="14"/>
     </row>
     <row r="10" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
@@ -3002,13 +2995,13 @@
       <c r="T10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10" s="9">
         <v>0.2</v>
       </c>
-      <c r="W10" s="15"/>
+      <c r="W10" s="14"/>
     </row>
     <row r="11" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
@@ -3071,13 +3064,13 @@
       <c r="T11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="U11" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V11" s="10">
+      <c r="V11" s="9">
         <v>0.2</v>
       </c>
-      <c r="W11" s="15"/>
+      <c r="W11" s="14"/>
     </row>
     <row r="12" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
@@ -3140,13 +3133,13 @@
       <c r="T12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U12" s="10" t="s">
+      <c r="U12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V12" s="10">
+      <c r="V12" s="9">
         <v>0.2</v>
       </c>
-      <c r="W12" s="15"/>
+      <c r="W12" s="14"/>
     </row>
     <row r="13" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
@@ -3209,13 +3202,13 @@
       <c r="T13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="U13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V13" s="10">
+      <c r="V13" s="9">
         <v>0.2</v>
       </c>
-      <c r="W13" s="15"/>
+      <c r="W13" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3235,24 +3228,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="59.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="38.25" style="6" customWidth="1"/>
-    <col min="3" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="11" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="18.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2"/>
-    <col min="20" max="20" width="6" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="38.25" style="15" customWidth="1"/>
+    <col min="3" max="11" width="9" style="11"/>
+    <col min="12" max="12" width="11" style="11" customWidth="1"/>
+    <col min="13" max="14" width="9" style="11"/>
+    <col min="15" max="15" width="18.875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="9" style="11"/>
+    <col min="17" max="19" width="9" style="13"/>
+    <col min="20" max="20" width="6" style="13" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3265,7 @@
         <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -3278,10 +3274,10 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>47</v>
@@ -3311,20 +3307,19 @@
         <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>74</v>
       </c>
@@ -3373,7 +3368,7 @@
       <c r="P2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>64</v>
       </c>
       <c r="R2" s="4" t="s">
@@ -3388,11 +3383,12 @@
       <c r="U2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="9">
         <v>0.2</v>
       </c>
+      <c r="W2" s="14"/>
     </row>
-    <row r="3" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>75</v>
       </c>
@@ -3441,10 +3437,10 @@
       <c r="P3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>71</v>
       </c>
       <c r="S3" s="4" t="s">
@@ -3456,11 +3452,12 @@
       <c r="U3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="9">
         <v>0.2</v>
       </c>
+      <c r="W3" s="14"/>
     </row>
-    <row r="4" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>76</v>
       </c>
@@ -3507,10 +3504,10 @@
       <c r="P4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="9" t="s">
         <v>71</v>
       </c>
       <c r="S4" s="4" t="s">
@@ -3522,11 +3519,12 @@
       <c r="U4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="9">
         <v>0.2</v>
       </c>
+      <c r="W4" s="14"/>
     </row>
-    <row r="5" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -3575,7 +3573,7 @@
       <c r="P5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="9" t="s">
         <v>64</v>
       </c>
       <c r="R5" s="4" t="s">
@@ -3590,11 +3588,12 @@
       <c r="U5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="9">
         <v>0.2</v>
       </c>
+      <c r="W5" s="14"/>
     </row>
-    <row r="6" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>78</v>
       </c>
@@ -3643,7 +3642,7 @@
       <c r="P6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="9" t="s">
         <v>64</v>
       </c>
       <c r="R6" s="4" t="s">
@@ -3658,11 +3657,12 @@
       <c r="U6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="9">
         <v>0.2</v>
       </c>
+      <c r="W6" s="14"/>
     </row>
-    <row r="7" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>79</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="P7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="9" t="s">
         <v>64</v>
       </c>
       <c r="R7" s="4" t="s">
@@ -3726,11 +3726,12 @@
       <c r="U7" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="9">
         <v>0.2</v>
       </c>
+      <c r="W7" s="14"/>
     </row>
-    <row r="8" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
@@ -3779,7 +3780,7 @@
       <c r="P8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="R8" s="4" t="s">
@@ -3794,9 +3795,10 @@
       <c r="U8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V8" s="9">
         <v>0.2</v>
       </c>
+      <c r="W8" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="137">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1041,13 +1041,42 @@
   <si>
     <t>嵌套弹窗关闭按钮名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>载荷信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="1"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编辑工况</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,6 +1128,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1148,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1190,6 +1233,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,7 +1547,7 @@
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="38.25" style="6" customWidth="1"/>
@@ -1511,7 +1557,7 @@
     <col min="17" max="19" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="103.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1580,7 +1626,7 @@
       </c>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="79.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -1665,11 +1711,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="42.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="12" width="17.5" style="11" customWidth="1"/>
@@ -1677,7 +1723,7 @@
     <col min="14" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="42.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>24</v>
@@ -1716,7 +1762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="42.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -1757,7 +1803,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="42.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
@@ -1798,7 +1844,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="42.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
@@ -1839,7 +1885,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="42.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
@@ -1880,7 +1926,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="42.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -1921,7 +1967,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="42.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>126</v>
       </c>
@@ -1962,7 +2008,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="42.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>127</v>
       </c>
@@ -2003,7 +2049,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="42.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>128</v>
       </c>
@@ -2044,7 +2090,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="42.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>129</v>
       </c>
@@ -2085,7 +2131,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
@@ -2126,7 +2172,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="42.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>131</v>
       </c>
@@ -2167,7 +2213,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="42.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
@@ -2208,7 +2254,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="42.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>133</v>
       </c>
@@ -2249,7 +2295,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="42.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>134</v>
       </c>
@@ -2299,13 +2345,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="38.25" style="6" customWidth="1"/>
@@ -2314,9 +2360,10 @@
     <col min="16" max="16" width="18.75" style="2" customWidth="1"/>
     <col min="17" max="19" width="9" style="2"/>
     <col min="20" max="20" width="6" style="14" customWidth="1"/>
+    <col min="23" max="23" width="7.625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="103.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2384,11 +2431,14 @@
         <v>121</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="79.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -2453,9 +2503,12 @@
       <c r="V2" s="9">
         <v>0.2</v>
       </c>
-      <c r="W2" s="14"/>
+      <c r="W2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="79.5" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -2522,9 +2575,12 @@
       <c r="V3" s="9">
         <v>0.2</v>
       </c>
-      <c r="W3" s="14"/>
+      <c r="W3" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X3" s="14"/>
     </row>
-    <row r="4" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="79.5" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2589,9 +2645,12 @@
       <c r="V4" s="9">
         <v>0.2</v>
       </c>
-      <c r="W4" s="14"/>
+      <c r="W4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X4" s="14"/>
     </row>
-    <row r="5" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="79.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -2658,9 +2717,12 @@
       <c r="V5" s="9">
         <v>0.2</v>
       </c>
-      <c r="W5" s="14"/>
+      <c r="W5" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="14"/>
     </row>
-    <row r="6" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" ht="79.5" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -2727,9 +2789,12 @@
       <c r="V6" s="9">
         <v>0.2</v>
       </c>
-      <c r="W6" s="14"/>
+      <c r="W6" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X6" s="14"/>
     </row>
-    <row r="7" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" ht="79.5" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
@@ -2796,9 +2861,12 @@
       <c r="V7" s="9">
         <v>0.2</v>
       </c>
-      <c r="W7" s="14"/>
+      <c r="W7" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X7" s="14"/>
     </row>
-    <row r="8" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" ht="79.5" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2865,9 +2933,12 @@
       <c r="V8" s="9">
         <v>0.2</v>
       </c>
-      <c r="W8" s="14"/>
+      <c r="W8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X8" s="14"/>
     </row>
-    <row r="9" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" ht="79.5" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -2932,9 +3003,12 @@
       <c r="V9" s="9">
         <v>0.2</v>
       </c>
-      <c r="W9" s="14"/>
+      <c r="W9" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X9" s="14"/>
     </row>
-    <row r="10" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="79.5" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -3001,9 +3075,12 @@
       <c r="V10" s="9">
         <v>0.2</v>
       </c>
-      <c r="W10" s="14"/>
+      <c r="W10" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X10" s="14"/>
     </row>
-    <row r="11" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" ht="79.5" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -3070,9 +3147,12 @@
       <c r="V11" s="9">
         <v>0.2</v>
       </c>
-      <c r="W11" s="14"/>
+      <c r="W11" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X11" s="14"/>
     </row>
-    <row r="12" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" ht="79.5" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>51</v>
       </c>
@@ -3139,9 +3219,12 @@
       <c r="V12" s="9">
         <v>0.2</v>
       </c>
-      <c r="W12" s="14"/>
+      <c r="W12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" s="14"/>
     </row>
-    <row r="13" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" ht="79.5" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>56</v>
       </c>
@@ -3208,7 +3291,10 @@
       <c r="V13" s="9">
         <v>0.2</v>
       </c>
-      <c r="W13" s="14"/>
+      <c r="W13" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3228,13 +3314,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="59.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="59.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
     <col min="2" max="2" width="38.25" style="15" customWidth="1"/>
@@ -3245,10 +3331,12 @@
     <col min="16" max="16" width="9" style="11"/>
     <col min="17" max="19" width="9" style="13"/>
     <col min="20" max="20" width="6" style="13" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="13"/>
+    <col min="21" max="22" width="9" style="13"/>
+    <col min="23" max="23" width="7.625" style="14" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="69.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3316,10 +3404,13 @@
         <v>121</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="59.25" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>74</v>
       </c>
@@ -3386,9 +3477,12 @@
       <c r="V2" s="9">
         <v>0.2</v>
       </c>
-      <c r="W2" s="14"/>
+      <c r="W2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="59.25" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>75</v>
       </c>
@@ -3455,9 +3549,12 @@
       <c r="V3" s="9">
         <v>0.2</v>
       </c>
-      <c r="W3" s="14"/>
+      <c r="W3" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X3" s="14"/>
     </row>
-    <row r="4" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="59.25" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>76</v>
       </c>
@@ -3522,9 +3619,12 @@
       <c r="V4" s="9">
         <v>0.2</v>
       </c>
-      <c r="W4" s="14"/>
+      <c r="W4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X4" s="14"/>
     </row>
-    <row r="5" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="59.25" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -3591,9 +3691,12 @@
       <c r="V5" s="9">
         <v>0.2</v>
       </c>
-      <c r="W5" s="14"/>
+      <c r="W5" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="14"/>
     </row>
-    <row r="6" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="59.25" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>78</v>
       </c>
@@ -3660,9 +3763,12 @@
       <c r="V6" s="9">
         <v>0.2</v>
       </c>
-      <c r="W6" s="14"/>
+      <c r="W6" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X6" s="14"/>
     </row>
-    <row r="7" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="59.25" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>79</v>
       </c>
@@ -3729,9 +3835,12 @@
       <c r="V7" s="9">
         <v>0.2</v>
       </c>
-      <c r="W7" s="14"/>
+      <c r="W7" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X7" s="14"/>
     </row>
-    <row r="8" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="59.25" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
@@ -3798,7 +3907,10 @@
       <c r="V8" s="9">
         <v>0.2</v>
       </c>
-      <c r="W8" s="14"/>
+      <c r="W8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X8" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
-    <sheet name="控件属性已经操作方法" sheetId="6" r:id="rId2"/>
-    <sheet name="新建" sheetId="3" r:id="rId3"/>
-    <sheet name="重命名" sheetId="4" r:id="rId4"/>
+    <sheet name="测试一" sheetId="7" r:id="rId2"/>
+    <sheet name="控件属性已经操作方法" sheetId="6" r:id="rId3"/>
+    <sheet name="新建" sheetId="3" r:id="rId4"/>
+    <sheet name="重命名" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -147,13 +148,12 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -163,25 +163,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-方式一：self.dlg_spec.Edit4.set_text(LayerThan2)
-方式二：
-self.dlg_spec.child_window(title="均  值",class_name="Button")</t>
+用于对比文本信息</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -191,25 +187,23 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+用例执行状态
+执行
+不执行</t>
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -219,23 +213,24 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-路径弹窗</t>
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -245,13 +240,26 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-警告弹窗</t>
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
         </r>
       </text>
     </comment>
@@ -265,12 +273,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -280,21 +289,25 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-用于对比文本信息</t>
+方式一：self.dlg_spec.Edit4.set_text(LayerThan2)
+方式二：
+self.dlg_spec.child_window(title="均  值",class_name="Button")</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -304,23 +317,25 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-用例执行状态
-执行
-不执行</t>
+通用
+特殊一
+特殊二</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -330,24 +345,23 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-预期值展示类型
-弹窗警告
-信息窗口
-控件文本</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -357,26 +371,13 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-在被测模块可能有嵌套窗口</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在执行每条用例前都会需要初始化模块</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
@@ -509,8 +510,133 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="134">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -964,10 +1090,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1004,42 +1126,6 @@
   </si>
   <si>
     <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗中输入文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭弹窗按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1070,6 +1156,34 @@
       </rPr>
       <t>编辑工况</t>
     </r>
+  </si>
+  <si>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1619,7 +1733,7 @@
         <v>89</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>90</v>
@@ -1709,10 +1823,180 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="103.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" ht="79.5" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="X2" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1">
+      <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1">
+      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42.75" customHeight="1"/>
@@ -1764,7 +2048,7 @@
     </row>
     <row r="2" spans="1:13" ht="42.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>94</v>
@@ -1805,7 +2089,7 @@
     </row>
     <row r="3" spans="1:13" ht="42.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>99</v>
@@ -1846,7 +2130,7 @@
     </row>
     <row r="4" spans="1:13" ht="42.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>114</v>
@@ -1887,48 +2171,48 @@
     </row>
     <row r="5" spans="1:13" ht="42.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="42.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="4">
         <v>0.2</v>
@@ -1967,373 +2251,168 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="42.75" customHeight="1">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>115</v>
       </c>
+      <c r="D8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>116</v>
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="42.75" customHeight="1">
+    <row r="10" spans="1:13" s="8" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>116</v>
+      <c r="C10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2343,12 +2422,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
@@ -2422,16 +2501,16 @@
         <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>90</v>
@@ -2504,7 +2583,7 @@
         <v>0.2</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X2" s="14"/>
     </row>
@@ -2576,7 +2655,7 @@
         <v>0.2</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X3" s="14"/>
     </row>
@@ -2646,7 +2725,7 @@
         <v>0.2</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X4" s="14"/>
     </row>
@@ -2718,7 +2797,7 @@
         <v>0.2</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X5" s="14"/>
     </row>
@@ -2790,7 +2869,7 @@
         <v>0.2</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X6" s="14"/>
     </row>
@@ -2862,7 +2941,7 @@
         <v>0.2</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X7" s="14"/>
     </row>
@@ -2934,7 +3013,7 @@
         <v>0.2</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X8" s="14"/>
     </row>
@@ -3004,7 +3083,7 @@
         <v>0.2</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X9" s="14"/>
     </row>
@@ -3076,7 +3155,7 @@
         <v>0.2</v>
       </c>
       <c r="W10" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X10" s="14"/>
     </row>
@@ -3148,7 +3227,7 @@
         <v>0.2</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X11" s="14"/>
     </row>
@@ -3220,7 +3299,7 @@
         <v>0.2</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X12" s="14"/>
     </row>
@@ -3292,7 +3371,7 @@
         <v>0.2</v>
       </c>
       <c r="W13" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X13" s="14"/>
     </row>
@@ -3312,11 +3391,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -3395,16 +3474,16 @@
         <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>90</v>
@@ -3478,7 +3557,7 @@
         <v>0.2</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X2" s="14"/>
     </row>
@@ -3550,7 +3629,7 @@
         <v>0.2</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X3" s="14"/>
     </row>
@@ -3620,7 +3699,7 @@
         <v>0.2</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X4" s="14"/>
     </row>
@@ -3692,7 +3771,7 @@
         <v>0.2</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X5" s="14"/>
     </row>
@@ -3764,7 +3843,7 @@
         <v>0.2</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X6" s="14"/>
     </row>
@@ -3836,7 +3915,7 @@
         <v>0.2</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X7" s="14"/>
     </row>
@@ -3908,7 +3987,7 @@
         <v>0.2</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X8" s="14"/>
     </row>

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="134">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1825,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1908,28 +1908,28 @@
     </row>
     <row r="2" spans="1:26" ht="79.5" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>3</v>
@@ -1947,12 +1947,14 @@
         <v>3</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="Q2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1995,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42.75" customHeight="1"/>
@@ -2215,40 +2217,40 @@
         <v>124</v>
       </c>
       <c r="B6" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" ht="40.5" customHeight="1">
@@ -2427,7 +2429,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="135">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1183,6 +1183,10 @@
   </si>
   <si>
     <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1257,12 +1261,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1305,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1350,6 +1360,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1655,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1669,9 +1685,10 @@
     <col min="4" max="15" width="5.5" style="2" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="2" customWidth="1"/>
     <col min="17" max="19" width="9" style="2"/>
+    <col min="22" max="22" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="103.5" customHeight="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="103.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1735,12 +1752,15 @@
       <c r="U1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="3"/>
-    </row>
-    <row r="2" spans="1:24" ht="79.5" customHeight="1">
+      <c r="Y1" s="3"/>
+    </row>
+    <row r="2" spans="1:25" ht="79.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -1804,11 +1824,42 @@
       <c r="U2" s="12">
         <v>0.2</v>
       </c>
+      <c r="V2" s="17"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="V3" s="18"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="V4" s="18"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="V5" s="18"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="V6" s="18"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="V8" s="18"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="V9" s="18"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="V10" s="18"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="V12" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 V3:V1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1">
@@ -1997,7 +2048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:M6"/>
     </sheetView>
   </sheetViews>
@@ -2426,10 +2477,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
@@ -2442,9 +2493,10 @@
     <col min="17" max="19" width="9" style="2"/>
     <col min="20" max="20" width="6" style="14" customWidth="1"/>
     <col min="23" max="23" width="7.625" style="14" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="103.5" customHeight="1">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="103.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2514,12 +2566,15 @@
       <c r="W1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" ht="79.5" customHeight="1">
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" spans="1:27" ht="79.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -2587,9 +2642,10 @@
       <c r="W2" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X2" s="14"/>
-    </row>
-    <row r="3" spans="1:26" ht="79.5" customHeight="1">
+      <c r="X2" s="17"/>
+      <c r="Y2" s="14"/>
+    </row>
+    <row r="3" spans="1:27" ht="79.5" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -2659,9 +2715,10 @@
       <c r="W3" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X3" s="14"/>
-    </row>
-    <row r="4" spans="1:26" ht="79.5" customHeight="1">
+      <c r="X3" s="18"/>
+      <c r="Y3" s="14"/>
+    </row>
+    <row r="4" spans="1:27" ht="79.5" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2729,9 +2786,10 @@
       <c r="W4" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X4" s="14"/>
-    </row>
-    <row r="5" spans="1:26" ht="79.5" customHeight="1">
+      <c r="X4" s="18"/>
+      <c r="Y4" s="14"/>
+    </row>
+    <row r="5" spans="1:27" ht="79.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -2801,9 +2859,10 @@
       <c r="W5" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X5" s="14"/>
-    </row>
-    <row r="6" spans="1:26" ht="79.5" customHeight="1">
+      <c r="X5" s="18"/>
+      <c r="Y5" s="14"/>
+    </row>
+    <row r="6" spans="1:27" ht="79.5" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -2873,9 +2932,10 @@
       <c r="W6" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X6" s="14"/>
-    </row>
-    <row r="7" spans="1:26" ht="79.5" customHeight="1">
+      <c r="X6" s="18"/>
+      <c r="Y6" s="14"/>
+    </row>
+    <row r="7" spans="1:27" ht="79.5" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
@@ -2945,9 +3005,10 @@
       <c r="W7" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X7" s="14"/>
-    </row>
-    <row r="8" spans="1:26" ht="79.5" customHeight="1">
+      <c r="X7" s="18"/>
+      <c r="Y7" s="14"/>
+    </row>
+    <row r="8" spans="1:27" ht="79.5" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -3017,9 +3078,10 @@
       <c r="W8" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X8" s="14"/>
-    </row>
-    <row r="9" spans="1:26" ht="79.5" customHeight="1">
+      <c r="X8" s="18"/>
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" spans="1:27" ht="79.5" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -3087,9 +3149,10 @@
       <c r="W9" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X9" s="14"/>
-    </row>
-    <row r="10" spans="1:26" ht="79.5" customHeight="1">
+      <c r="X9" s="18"/>
+      <c r="Y9" s="14"/>
+    </row>
+    <row r="10" spans="1:27" ht="79.5" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -3159,9 +3222,10 @@
       <c r="W10" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X10" s="14"/>
-    </row>
-    <row r="11" spans="1:26" ht="79.5" customHeight="1">
+      <c r="X10" s="18"/>
+      <c r="Y10" s="14"/>
+    </row>
+    <row r="11" spans="1:27" ht="79.5" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -3231,9 +3295,10 @@
       <c r="W11" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X11" s="14"/>
-    </row>
-    <row r="12" spans="1:26" ht="79.5" customHeight="1">
+      <c r="X11" s="18"/>
+      <c r="Y11" s="14"/>
+    </row>
+    <row r="12" spans="1:27" ht="79.5" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>51</v>
       </c>
@@ -3303,9 +3368,10 @@
       <c r="W12" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X12" s="14"/>
-    </row>
-    <row r="13" spans="1:26" ht="79.5" customHeight="1">
+      <c r="X12" s="18"/>
+      <c r="Y12" s="14"/>
+    </row>
+    <row r="13" spans="1:27" ht="79.5" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>56</v>
       </c>
@@ -3375,7 +3441,7 @@
       <c r="W13" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3383,7 +3449,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 X3:X1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3395,10 +3461,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="59.25" customHeight="1"/>
@@ -3414,10 +3480,11 @@
     <col min="20" max="20" width="6" style="13" customWidth="1"/>
     <col min="21" max="22" width="9" style="13"/>
     <col min="23" max="23" width="7.625" style="14" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="13"/>
+    <col min="24" max="24" width="13.5" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="69.75" customHeight="1">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="69.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3487,11 +3554,14 @@
       <c r="W1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="59.25" customHeight="1">
+    <row r="2" spans="1:25" ht="59.25" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>74</v>
       </c>
@@ -3561,9 +3631,10 @@
       <c r="W2" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X2" s="14"/>
-    </row>
-    <row r="3" spans="1:24" ht="59.25" customHeight="1">
+      <c r="X2" s="17"/>
+      <c r="Y2" s="14"/>
+    </row>
+    <row r="3" spans="1:25" ht="59.25" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>75</v>
       </c>
@@ -3633,9 +3704,10 @@
       <c r="W3" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X3" s="14"/>
-    </row>
-    <row r="4" spans="1:24" ht="59.25" customHeight="1">
+      <c r="X3" s="18"/>
+      <c r="Y3" s="14"/>
+    </row>
+    <row r="4" spans="1:25" ht="59.25" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>76</v>
       </c>
@@ -3703,9 +3775,10 @@
       <c r="W4" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X4" s="14"/>
-    </row>
-    <row r="5" spans="1:24" ht="59.25" customHeight="1">
+      <c r="X4" s="18"/>
+      <c r="Y4" s="14"/>
+    </row>
+    <row r="5" spans="1:25" ht="59.25" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -3775,9 +3848,10 @@
       <c r="W5" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X5" s="14"/>
-    </row>
-    <row r="6" spans="1:24" ht="59.25" customHeight="1">
+      <c r="X5" s="18"/>
+      <c r="Y5" s="14"/>
+    </row>
+    <row r="6" spans="1:25" ht="59.25" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>78</v>
       </c>
@@ -3847,9 +3921,10 @@
       <c r="W6" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X6" s="14"/>
-    </row>
-    <row r="7" spans="1:24" ht="59.25" customHeight="1">
+      <c r="X6" s="18"/>
+      <c r="Y6" s="14"/>
+    </row>
+    <row r="7" spans="1:25" ht="59.25" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>79</v>
       </c>
@@ -3919,9 +3994,10 @@
       <c r="W7" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X7" s="14"/>
-    </row>
-    <row r="8" spans="1:24" ht="59.25" customHeight="1">
+      <c r="X7" s="18"/>
+      <c r="Y7" s="14"/>
+    </row>
+    <row r="8" spans="1:25" ht="59.25" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
@@ -3991,12 +4067,25 @@
       <c r="W8" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X8" s="14"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" spans="1:25" ht="59.25" customHeight="1">
+      <c r="X9" s="18"/>
+    </row>
+    <row r="10" spans="1:25" ht="59.25" customHeight="1">
+      <c r="X10" s="18"/>
+    </row>
+    <row r="11" spans="1:25" ht="59.25" customHeight="1">
+      <c r="X11" s="18"/>
+    </row>
+    <row r="12" spans="1:25" ht="59.25" customHeight="1">
+      <c r="X12" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 X3:X1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1">

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="136">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1047,10 +1047,6 @@
   </si>
   <si>
     <t>Button3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboBox</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1187,6 +1183,14 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox；方式一；窗口一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1673,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1714,10 +1718,10 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>47</v>
@@ -1750,10 +1754,10 @@
         <v>89</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>90</v>
@@ -1874,15 +1878,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="24" max="24" width="13.5" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="103.5" customHeight="1">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="103.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1908,10 +1915,10 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>47</v>
@@ -1941,23 +1948,26 @@
         <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="X1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" ht="79.5" customHeight="1">
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" spans="1:27" ht="79.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -2025,14 +2035,47 @@
         <v>0.2</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="X2" s="14"/>
+        <v>125</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y2" s="14"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="X3" s="18"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="X4" s="18"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="X5" s="18"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="X6" s="18"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="X7" s="18"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="X8" s="18"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="X9" s="18"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="X10" s="18"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="X11" s="18"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="X12" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 X3:X1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1">
@@ -2049,7 +2092,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:M6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42.75" customHeight="1"/>
@@ -2078,10 +2121,10 @@
         <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>47</v>
@@ -2101,7 +2144,7 @@
     </row>
     <row r="2" spans="1:13" ht="42.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>94</v>
@@ -2142,7 +2185,7 @@
     </row>
     <row r="3" spans="1:13" ht="42.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>99</v>
@@ -2160,112 +2203,112 @@
         <v>104</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="42.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="42.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="42.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -2306,166 +2349,166 @@
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="8" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2565,10 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>47</v>
@@ -2555,19 +2598,19 @@
         <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>90</v>
@@ -2640,7 +2683,7 @@
         <v>0.2</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="14"/>
@@ -2713,7 +2756,7 @@
         <v>0.2</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X3" s="18"/>
       <c r="Y3" s="14"/>
@@ -2784,7 +2827,7 @@
         <v>0.2</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X4" s="18"/>
       <c r="Y4" s="14"/>
@@ -2857,7 +2900,7 @@
         <v>0.2</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X5" s="18"/>
       <c r="Y5" s="14"/>
@@ -2930,7 +2973,7 @@
         <v>0.2</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X6" s="18"/>
       <c r="Y6" s="14"/>
@@ -3003,7 +3046,7 @@
         <v>0.2</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X7" s="18"/>
       <c r="Y7" s="14"/>
@@ -3076,7 +3119,7 @@
         <v>0.2</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X8" s="18"/>
       <c r="Y8" s="14"/>
@@ -3147,7 +3190,7 @@
         <v>0.2</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X9" s="18"/>
       <c r="Y9" s="14"/>
@@ -3220,7 +3263,7 @@
         <v>0.2</v>
       </c>
       <c r="W10" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X10" s="18"/>
       <c r="Y10" s="14"/>
@@ -3293,7 +3336,7 @@
         <v>0.2</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="14"/>
@@ -3366,7 +3409,7 @@
         <v>0.2</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X12" s="18"/>
       <c r="Y12" s="14"/>
@@ -3439,7 +3482,7 @@
         <v>0.2</v>
       </c>
       <c r="W13" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y13" s="14"/>
     </row>
@@ -3510,10 +3553,10 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>47</v>
@@ -3543,19 +3586,19 @@
         <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>90</v>
@@ -3629,7 +3672,7 @@
         <v>0.2</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="14"/>
@@ -3702,7 +3745,7 @@
         <v>0.2</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X3" s="18"/>
       <c r="Y3" s="14"/>
@@ -3773,7 +3816,7 @@
         <v>0.2</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X4" s="18"/>
       <c r="Y4" s="14"/>
@@ -3846,7 +3889,7 @@
         <v>0.2</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X5" s="18"/>
       <c r="Y5" s="14"/>
@@ -3919,7 +3962,7 @@
         <v>0.2</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X6" s="18"/>
       <c r="Y6" s="14"/>
@@ -3992,7 +4035,7 @@
         <v>0.2</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X7" s="18"/>
       <c r="Y7" s="14"/>
@@ -4065,7 +4108,7 @@
         <v>0.2</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X8" s="18"/>
       <c r="Y8" s="14"/>

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="137">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1190,7 +1190,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ComboBox；方式一；窗口一</t>
+    <t>编辑工况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑工况；编辑工况；ComboBox；方式一；窗口一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1881,7 +1885,7 @@
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2023,7 +2027,7 @@
         <v>93</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>91</v>
@@ -2038,7 +2042,7 @@
         <v>125</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y2" s="14"/>
     </row>
@@ -2075,7 +2079,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 X3:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X1048576 Q1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1">
@@ -2523,7 +2527,7 @@
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -323,9 +323,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+窗口一
+窗口二
+窗口三</t>
         </r>
       </text>
     </comment>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="136">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1095,10 +1095,6 @@
   </si>
   <si>
     <t>操作子窗口标题</t>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>窗口一</t>
@@ -1190,11 +1186,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>编辑工况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑工况；编辑工况；ComboBox；方式一；窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1323,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1374,6 +1370,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1761,7 +1760,7 @@
         <v>115</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>90</v>
@@ -1882,18 +1881,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="24" max="24" width="13.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="103.5" customHeight="1">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="103.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1904,74 +1903,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1" s="3"/>
-    </row>
-    <row r="2" spans="1:27" ht="79.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:24" ht="79.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -1982,37 +1977,37 @@
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>3</v>
@@ -2021,68 +2016,67 @@
         <v>28</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y2" s="14"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="X3" s="18"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="X4" s="18"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="X5" s="18"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="X6" s="18"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="X7" s="18"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="X8" s="18"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="X9" s="18"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="X10" s="18"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="X11" s="18"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="X12" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="L12" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X1048576 Q1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1048576 E1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2095,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42.75" customHeight="1"/>
@@ -2148,7 +2142,7 @@
     </row>
     <row r="2" spans="1:13" ht="42.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>94</v>
@@ -2189,7 +2183,7 @@
     </row>
     <row r="3" spans="1:13" ht="42.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>99</v>
@@ -2207,7 +2201,7 @@
         <v>104</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>108</v>
@@ -2230,7 +2224,7 @@
     </row>
     <row r="4" spans="1:13" ht="42.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>113</v>
@@ -2270,49 +2264,49 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="42.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -2353,13 +2347,13 @@
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>114</v>
@@ -2371,7 +2365,7 @@
         <v>114</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>114</v>
@@ -2394,7 +2388,7 @@
     </row>
     <row r="8" spans="1:13" s="8" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>114</v>
@@ -2403,116 +2397,116 @@
         <v>114</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2608,13 +2602,13 @@
         <v>89</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>90</v>
@@ -2687,7 +2681,7 @@
         <v>0.2</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="14"/>
@@ -2760,7 +2754,7 @@
         <v>0.2</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X3" s="18"/>
       <c r="Y3" s="14"/>
@@ -2831,7 +2825,7 @@
         <v>0.2</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X4" s="18"/>
       <c r="Y4" s="14"/>
@@ -2904,7 +2898,7 @@
         <v>0.2</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X5" s="18"/>
       <c r="Y5" s="14"/>
@@ -2977,7 +2971,7 @@
         <v>0.2</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X6" s="18"/>
       <c r="Y6" s="14"/>
@@ -3050,7 +3044,7 @@
         <v>0.2</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X7" s="18"/>
       <c r="Y7" s="14"/>
@@ -3123,7 +3117,7 @@
         <v>0.2</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X8" s="18"/>
       <c r="Y8" s="14"/>
@@ -3194,7 +3188,7 @@
         <v>0.2</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X9" s="18"/>
       <c r="Y9" s="14"/>
@@ -3267,7 +3261,7 @@
         <v>0.2</v>
       </c>
       <c r="W10" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X10" s="18"/>
       <c r="Y10" s="14"/>
@@ -3340,7 +3334,7 @@
         <v>0.2</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="14"/>
@@ -3413,7 +3407,7 @@
         <v>0.2</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X12" s="18"/>
       <c r="Y12" s="14"/>
@@ -3486,7 +3480,7 @@
         <v>0.2</v>
       </c>
       <c r="W13" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y13" s="14"/>
     </row>
@@ -3596,13 +3590,13 @@
         <v>89</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>90</v>
@@ -3676,7 +3670,7 @@
         <v>0.2</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="14"/>
@@ -3749,7 +3743,7 @@
         <v>0.2</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X3" s="18"/>
       <c r="Y3" s="14"/>
@@ -3820,7 +3814,7 @@
         <v>0.2</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X4" s="18"/>
       <c r="Y4" s="14"/>
@@ -3893,7 +3887,7 @@
         <v>0.2</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X5" s="18"/>
       <c r="Y5" s="14"/>
@@ -3966,7 +3960,7 @@
         <v>0.2</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X6" s="18"/>
       <c r="Y6" s="14"/>
@@ -4039,7 +4033,7 @@
         <v>0.2</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X7" s="18"/>
       <c r="Y7" s="14"/>
@@ -4112,7 +4106,7 @@
         <v>0.2</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X8" s="18"/>
       <c r="Y8" s="14"/>

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化编辑工况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -1883,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AI1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2089,7 +2089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
